--- a/Power Distribution System/Power Distribution System/bin/Debug/soalarwind.xlsx
+++ b/Power Distribution System/Power Distribution System/bin/Debug/soalarwind.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -29,55 +29,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>09/01/2023 9:11:15 pm</t>
+    <t>09/01/2023 11:16:07 pm</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>09/01/2023 9:11:16 pm</t>
+    <t>09/01/2023 11:16:08 pm</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>09/01/2023 9:11:20 pm</t>
+    <t>09/01/2023 11:16:12 pm</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>09/01/2023 9:11:22 pm</t>
+    <t>09/01/2023 11:16:14 pm</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>09/01/2023 9:11:25 pm</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>09/01/2023 9:11:28 pm</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>09/01/2023 9:11:30 pm</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>09/01/2023 9:11:34 pm</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>09/01/2023 9:11:35 pm</t>
+    <t>09/01/2023 11:16:17 pm</t>
   </si>
 </sst>
 </file>
@@ -131,14 +107,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5709904261998" customWidth="1"/>
+    <col min="2" max="2" width="22.6646466936384" customWidth="1"/>
     <col min="3" max="3" width="11.5050506591797" customWidth="1"/>
     <col min="4" max="4" width="11.0467180524554" customWidth="1"/>
   </cols>
@@ -165,7 +141,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0">
-        <v>5100</v>
+        <v>400</v>
       </c>
       <c r="D2" s="0">
         <v>5000</v>
@@ -179,10 +155,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0">
-        <v>5100</v>
+        <v>400</v>
       </c>
       <c r="D3" s="0">
-        <v>1200</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="4">
@@ -193,10 +169,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="0">
-        <v>7800</v>
+        <v>4600</v>
       </c>
       <c r="D4" s="0">
-        <v>1200</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="5">
@@ -207,10 +183,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="0">
-        <v>7800</v>
+        <v>4600</v>
       </c>
       <c r="D5" s="0">
-        <v>7700</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="6">
@@ -221,66 +197,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="0">
-        <v>6300</v>
+        <v>8000</v>
       </c>
       <c r="D6" s="0">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0">
-        <v>6300</v>
-      </c>
-      <c r="D7" s="0">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="0">
-        <v>4600</v>
-      </c>
-      <c r="D8" s="0">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="0">
-        <v>4600</v>
-      </c>
-      <c r="D9" s="0">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="0">
-        <v>2400</v>
-      </c>
-      <c r="D10" s="0">
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
